--- a/src/main/resources/templates/excelClockInOutTemplate.xlsx
+++ b/src/main/resources/templates/excelClockInOutTemplate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\01_10_副業ＷＫ★★★\001_002_松岡農園_作業QRコード読取PJ\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26D465B-AF27-41E0-9443-3D2E715F80F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2335B6-3F93-4CC5-B3DF-7DEDB026EF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6C5BA028-BE0E-469B-9AD4-AF03A5C224D7}"/>
+    <workbookView xWindow="180" yWindow="-105" windowWidth="16695" windowHeight="15015" xr2:uid="{6C5BA028-BE0E-469B-9AD4-AF03A5C224D7}"/>
   </bookViews>
   <sheets>
     <sheet name="松岡農園 給与明細原本" sheetId="8" r:id="rId1"/>
     <sheet name="松岡農園 出退勤記録原本" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'松岡農園 給与明細原本'!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'松岡農園 給与明細原本'!$A$1:$H$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'松岡農園 出退勤記録原本'!$A$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>給与支給日</t>
     <rPh sb="0" eb="5">
@@ -357,16 +357,6 @@
     <t>作業時間</t>
     <rPh sb="0" eb="4">
       <t>サギョウジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業平均</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -571,12 +561,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>給与明細書(</t>
+    <rPh sb="0" eb="5">
+      <t>キュウヨメイサイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分)</t>
+    <rPh sb="0" eb="1">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="[h]:mm"/>
@@ -587,8 +591,9 @@
     <numFmt numFmtId="183" formatCode="00.00"/>
     <numFmt numFmtId="184" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;&quot;分&quot;"/>
     <numFmt numFmtId="185" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="186" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,14 +620,6 @@
       <name val="HG丸ｺﾞｼｯｸM-PRO"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -704,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -863,17 +860,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1083,17 +1069,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,180 +1154,234 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="186" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1289,65 +1391,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{0D1215E0-3D9A-4A60-8F27-368021137172}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{0D1215E0-3D9A-4A60-8F27-368021137172}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1669,799 +1719,476 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="1.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12">
+    <row r="1" spans="2:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="59">
         <v>45536</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G3" s="15" t="s">
+      <c r="F2" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17">
-        <f>DATE(YEAR(A1), MONTH(A1)+1, 10)</f>
+      <c r="F4" s="60">
+        <f>DATE(YEAR(E2), MONTH(E2)+1, 10)</f>
         <v>45575</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21">
-        <f>EOMONTH(A1, 0)</f>
+      <c r="F5" s="61">
+        <f>EOMONTH(E2, 0)</f>
         <v>45565</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="62"/>
+      <c r="C7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="28" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="63"/>
+      <c r="C8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="3" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="D10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="E10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24" t="s">
+      <c r="F10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="72"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="72"/>
+      <c r="C12" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="72"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="72"/>
+      <c r="C14" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
-      <c r="B14" s="46" t="str">
-        <f>IF(AND(D14&lt;&gt;"",F14&lt;&gt;""),ROUNDUP(D14/F14,1),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35" t="s">
+    </row>
+    <row r="15" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="72"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="72"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="73"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24" t="s">
+    </row>
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="72"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32">
+        <f>IF(AND(C13&lt;&gt;"",C20&lt;&gt;""),C20*C13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="72"/>
+      <c r="C21" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="72"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="72"/>
+      <c r="C23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="52">
-        <v>1030</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48">
-        <f>B19*B12</f>
+    </row>
+    <row r="24" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="72"/>
+      <c r="C24" s="31">
+        <v>100</v>
+      </c>
+      <c r="D24" s="31">
+        <v>100</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32">
+        <f>IF(C24&lt;&gt;"",C24,0)*IF(C11&lt;&gt;"",C11,0)+IF(D24&lt;&gt;"",D24,0)+(IF(F11&lt;&gt;"",F11,0)*IF(E24&lt;&gt;"",E24,0))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="72"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="73"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30">
+        <f>SUM(G20,G22,C26:F26)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="50" t="s">
+    </row>
+    <row r="27" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="51"/>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="33"/>
-      <c r="B23" s="48">
-        <v>100</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48">
-        <v>100</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48">
-        <f>(B23*B10)+D23+(H10*F23)</f>
-        <v>100</v>
-      </c>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="51"/>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54">
-        <f>SUM(J19,J21,B25:I25)</f>
+    </row>
+    <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="72"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32">
         <v>0</v>
       </c>
-      <c r="K25" s="55"/>
-    </row>
-    <row r="26" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="33"/>
-      <c r="B29" s="53" t="s">
+    </row>
+    <row r="30" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="72"/>
+      <c r="C30" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
+      <c r="D30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="56"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="33"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="49"/>
-    </row>
-    <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="33"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="56"/>
-    </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="33"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="49"/>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53" t="s">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="72"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="72"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="72"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="72"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="56"/>
-    </row>
-    <row r="34" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="34"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54">
-        <f>SUM(B28:K28,B30:K30,B32:K32,B34:I34)</f>
+    </row>
+    <row r="35" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="73"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30">
+        <f>SUM(C29:G29,C31:G31,C33:G33,C35:F35)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="55"/>
-    </row>
-    <row r="35" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="32" t="s">
+    </row>
+    <row r="36" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="C37" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24" t="s">
+      <c r="D37" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="42"/>
-    </row>
-    <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="33"/>
-      <c r="B37" s="48">
-        <f>SUM(B28:K28)</f>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="72"/>
+      <c r="C38" s="31">
+        <f>SUM(C29:G29)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48">
-        <f>J19-B25-B28-D28-F28-H28</f>
+      <c r="D38" s="31">
+        <f>G20-SUM(C29:F29)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49"/>
-    </row>
-    <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="72"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53" t="s">
+      <c r="F39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53" t="s">
+      <c r="G39" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="56"/>
-    </row>
-    <row r="39" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="34"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54">
-        <f>J39-H39</f>
+    </row>
+    <row r="40" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="73"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29">
+        <f>G40-F40</f>
         <v>0</v>
       </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54">
+      <c r="F40" s="29">
         <v>0</v>
       </c>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54">
-        <f>J25-J34</f>
+      <c r="G40" s="30">
+        <f>G26-G35</f>
         <v>0</v>
       </c>
-      <c r="K39" s="55"/>
-    </row>
-    <row r="40" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="32" t="s">
+    </row>
+    <row r="41" spans="2:7" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
-    </row>
-    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="33"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-    </row>
-    <row r="43" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="33"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
-    </row>
-    <row r="44" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="34"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="76"/>
+    </row>
+    <row r="43" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="72"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="79"/>
+    </row>
+    <row r="44" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="72"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="79"/>
+    </row>
+    <row r="45" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="73"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+    </row>
+    <row r="46" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="22.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="155">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:K44"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
+  <mergeCells count="6">
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:G45"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B19:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R&amp;"HG丸ｺﾞｼｯｸM-PRO,標準"松岡農園
 </oddHeader>
@@ -2476,8 +2203,8 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2492,63 +2219,63 @@
   <sheetData>
     <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="67"/>
+      <c r="B4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="69"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="68"/>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="D8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="E8" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2556,280 +2283,280 @@
       <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="69"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="69"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="69"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="69"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>6</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="69"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="69"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="69"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="69"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="69"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="69"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>14</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="69"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>15</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="69"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>16</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="69"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>17</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="69"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>18</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="69"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>19</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>20</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>21</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="69"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>22</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="69"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>23</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="69"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>24</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="69"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>25</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="69"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>26</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="69"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>27</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="69"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>28</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="69"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>29</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>30</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="79"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>31</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="69"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="5"/>
@@ -2840,59 +2567,59 @@
     </row>
     <row r="43" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.4">
-      <c r="A44" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="81" t="s">
+      <c r="A44" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
+      <c r="B44" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="67"/>
+      <c r="B46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="69"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="73"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="68"/>
+      <c r="B48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="5.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="D50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="E50" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="E50" s="70" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2900,451 +2627,451 @@
       <c r="A52" s="5">
         <v>1</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="69"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>2</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>3</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="69"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>4</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="69"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>5</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="69"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>6</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="69"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>7</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="69"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>8</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="69"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5">
         <v>9</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="76"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>10</v>
       </c>
-      <c r="B61" s="77"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="79"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>11</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="69"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>12</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="69"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="15"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>13</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="69"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>14</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="69"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>15</v>
       </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="69"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>16</v>
       </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="69"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>17</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="69"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>18</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="69"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5">
         <v>19</v>
       </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="76"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>20</v>
       </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="79"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>21</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="69"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>22</v>
       </c>
-      <c r="B73" s="71"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="69"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>23</v>
       </c>
-      <c r="B74" s="71"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="69"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>24</v>
       </c>
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="69"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>25</v>
       </c>
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="69"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>26</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="69"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>27</v>
       </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="69"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>28</v>
       </c>
-      <c r="B79" s="71"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="69"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>29</v>
       </c>
-      <c r="B80" s="74"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
-      <c r="E80" s="76"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>30</v>
       </c>
-      <c r="B81" s="77"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="79"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>31</v>
       </c>
-      <c r="B82" s="71"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="69"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>32</v>
       </c>
-      <c r="B83" s="71"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="69"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>33</v>
       </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>34</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="69"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>35</v>
       </c>
-      <c r="B86" s="71"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="69"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>36</v>
       </c>
-      <c r="B87" s="71"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="69"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>37</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="69"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>38</v>
       </c>
-      <c r="B89" s="71"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="69"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5">
         <v>39</v>
       </c>
-      <c r="B90" s="74"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="76"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="22"/>
     </row>
     <row r="91" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>40</v>
       </c>
-      <c r="B91" s="77"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="79"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>41</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="69"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>42</v>
       </c>
-      <c r="B93" s="71"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="69"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>43</v>
       </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="69"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>44</v>
       </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="69"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>45</v>
       </c>
-      <c r="B96" s="71"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="69"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>46</v>
       </c>
-      <c r="B97" s="71"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="69"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>47</v>
       </c>
-      <c r="B98" s="71"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="69"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>48</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="69"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>49</v>
       </c>
-      <c r="B100" s="71"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="69"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>50</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="69"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
